--- a/CSS Advanced Videos.xlsx
+++ b/CSS Advanced Videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Darina\Programming and Software\HTML &amp; CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD8B4B4-5919-4A29-AD2D-98F0309C3198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281579D8-B801-49FC-BC5D-D57D10EDBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AD9B363-61AC-493E-8B55-3FEC3F69C7AF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Workshop</t>
   </si>
@@ -86,19 +86,52 @@
   </si>
   <si>
     <t>Project Consultation</t>
+  </si>
+  <si>
+    <t>SoftUni Guidelines: https://zeroheight.com/646c17950/p/608bfb-button/b/32e1a2</t>
+  </si>
+  <si>
+    <t>Google Material Design Shadows: https://gist.github.com/serglo/f9f0be9a66fd6755a0bda85f9c64e85f</t>
+  </si>
+  <si>
+    <t>Design: https://www.figma.com/file/D1hWjDJ2oDVSAXWz3TnmgM/CSS-Advanced?node-id=1%3A26</t>
+  </si>
+  <si>
+    <t>Sample ITCSS Architecture: https://github.com/aarongarciah/itcss-sample/tree/master/src/scss</t>
+  </si>
+  <si>
+    <t>Design: https://www.figma.com/file/D1hWjDJ2oDVSAXWz3TnmgM/CSS-  Advanced?node-id=1%3A26</t>
+  </si>
+  <si>
+    <t>Easy Compile VS Code Extension: https://marketplace.visualstudio.com/items?itemName=refgd.easy-compile</t>
+  </si>
+  <si>
+    <t>When to Use Extend/When to Use Mixin: https://csswizardry.com/2014/11/when-to-use-extend-when-to-use-a-mixin/</t>
+  </si>
+  <si>
+    <t>Design: https://www.figma.com/file/D1hWjDJ2oDVSAXWz3TnmgM/CSS-Advanced?node-id=2556%3A623</t>
+  </si>
+  <si>
+    <t>Design: https://www.figma.com/file/D1hWjDJ2oDVSAXWz3TnmgM/CSS-Advanced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +154,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,105 +482,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4286EE1A-59A9-4502-BCC6-384B1739DCFB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
